--- a/outputs-GTDB-r202/o__Treponematales.xlsx
+++ b/outputs-GTDB-r202/o__Treponematales.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,11 +475,6 @@
           <t>prediction</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>rejection-f</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -510,11 +505,6 @@
           <t>f__Treponemataceae</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>f__Treponemataceae</t>
-        </is>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -545,11 +535,6 @@
           <t>f__Treponemataceae</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>f__Treponemataceae</t>
-        </is>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -580,11 +565,6 @@
           <t>f__Treponemataceae</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>f__Treponemataceae</t>
-        </is>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -615,11 +595,6 @@
           <t>f__Treponemataceae</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>f__Treponemataceae</t>
-        </is>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -650,11 +625,6 @@
           <t>f__Treponemataceae</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>f__Treponemataceae</t>
-        </is>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -685,11 +655,6 @@
           <t>f__Treponemataceae</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>f__Treponemataceae</t>
-        </is>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -720,11 +685,6 @@
           <t>f__Treponemataceae</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>f__Treponemataceae</t>
-        </is>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -751,11 +711,6 @@
         <v>0.2590272915741426</v>
       </c>
       <c r="H9" t="inlineStr">
-        <is>
-          <t>f__UBA8932</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
         <is>
           <t>f__UBA8932</t>
         </is>

--- a/outputs-GTDB-r202/o__Treponematales.xlsx
+++ b/outputs-GTDB-r202/o__Treponematales.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,6 +475,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -505,6 +510,11 @@
           <t>f__Treponemataceae</t>
         </is>
       </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>f__Treponemataceae</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -535,6 +545,11 @@
           <t>f__Treponemataceae</t>
         </is>
       </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>f__Treponemataceae</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -565,6 +580,11 @@
           <t>f__Treponemataceae</t>
         </is>
       </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>f__Treponemataceae</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -595,6 +615,11 @@
           <t>f__Treponemataceae</t>
         </is>
       </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>f__Treponemataceae</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -625,6 +650,11 @@
           <t>f__Treponemataceae</t>
         </is>
       </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>f__Treponemataceae</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -655,6 +685,11 @@
           <t>f__Treponemataceae</t>
         </is>
       </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>f__Treponemataceae</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -685,6 +720,11 @@
           <t>f__Treponemataceae</t>
         </is>
       </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>f__Treponemataceae</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -711,6 +751,11 @@
         <v>0.2590272915741426</v>
       </c>
       <c r="H9" t="inlineStr">
+        <is>
+          <t>f__UBA8932</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
         <is>
           <t>f__UBA8932</t>
         </is>

--- a/outputs-GTDB-r202/o__Treponematales.xlsx
+++ b/outputs-GTDB-r202/o__Treponematales.xlsx
@@ -512,7 +512,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>f__Treponemataceae</t>
+          <t>f__Treponemataceae(reject)</t>
         </is>
       </c>
     </row>
@@ -757,7 +757,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>f__UBA8932</t>
+          <t>f__UBA8932(reject)</t>
         </is>
       </c>
     </row>
